--- a/GitHub_Prueba/Prueba_Github.xlsx
+++ b/GitHub_Prueba/Prueba_Github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eve\Desktop\GitHub_Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3B9B78-29DA-44D9-ACBE-B55AC6238D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620F285-3345-4473-8AB8-9FEE12FCEBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11715" windowHeight="8760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -28,10 +28,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>hoja dos</t>
+    <t>datos hoja 1</t>
   </si>
   <si>
-    <t>hoja 1</t>
+    <t>datos hoja 2</t>
   </si>
 </sst>
 </file>
@@ -351,11 +351,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E689AE2C-F8F4-4BCD-8485-4F919EA597E1}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -365,22 +383,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GitHub_Prueba/Prueba_Github.xlsx
+++ b/GitHub_Prueba/Prueba_Github.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eve\Desktop\GitHub_Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620F285-3345-4473-8AB8-9FEE12FCEBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD26A636-8DE9-4705-92E0-7B4035F9CECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11715" windowHeight="8760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11715" windowHeight="8760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
     <sheet name="hoja2" sheetId="1" r:id="rId2"/>
+    <sheet name="campos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,12 +27,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>datos hoja 1</t>
   </si>
   <si>
     <t>datos hoja 2</t>
+  </si>
+  <si>
+    <t>fila 1</t>
+  </si>
+  <si>
+    <t>fila 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fila 3 </t>
+  </si>
+  <si>
+    <t>fila 5</t>
   </si>
 </sst>
 </file>
@@ -351,7 +364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E689AE2C-F8F4-4BCD-8485-4F919EA597E1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -369,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,4 +398,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACC8144-9B87-4F1E-9650-5DBC3D3B0757}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GitHub_Prueba/Prueba_Github.xlsx
+++ b/GitHub_Prueba/Prueba_Github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eve\Desktop\GitHub_Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD26A636-8DE9-4705-92E0-7B4035F9CECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701EB8C5-B73F-4D1A-B44F-03B329320205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11715" windowHeight="8760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>datos hoja 1</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>fila 5</t>
+  </si>
+  <si>
+    <t>Columna A</t>
   </si>
 </sst>
 </file>
@@ -402,31 +405,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACC8144-9B87-4F1E-9650-5DBC3D3B0757}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/GitHub_Prueba/Prueba_Github.xlsx
+++ b/GitHub_Prueba/Prueba_Github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eve\Desktop\GitHub_Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701EB8C5-B73F-4D1A-B44F-03B329320205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76269E8-E064-426E-89F4-CB79C758237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11715" windowHeight="8760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>fila 5</t>
   </si>
   <si>
-    <t>Columna A</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
